--- a/tables/PDF_Rscrap.xlsx
+++ b/tables/PDF_Rscrap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1001C85-4548-443C-9B2A-F204CD2F2DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7FC46D-761B-48E5-B83C-FE4ECCDDC947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="360" windowWidth="21600" windowHeight="11385" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
+    <workbookView xWindow="16335" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms_Options" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>Permissions Management</t>
   </si>
   <si>
-    <t>Font adjustment/Speak-to-text</t>
-  </si>
-  <si>
     <t>Other IEP Survey needs</t>
   </si>
   <si>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Font adjustment/ Speak-to-text</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,13 +1054,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4"/>
     </row>
@@ -1080,10 +1080,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="13"/>
     </row>
@@ -1117,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1125,10 +1125,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1139,10 +1139,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="15"/>
     </row>
@@ -1154,7 +1154,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1162,69 +1162,69 @@
         <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1262,94 +1262,94 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="5"/>
@@ -1357,36 +1357,36 @@
     </row>
     <row r="8" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1421,63 +1421,63 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="16"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="17"/>
@@ -1485,13 +1485,13 @@
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1499,25 +1499,25 @@
     </row>
     <row r="7" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1547,16 +1547,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1567,18 +1567,18 @@
     </row>
     <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1588,18 +1588,18 @@
     </row>
     <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1607,7 +1607,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1638,16 +1638,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
@@ -1665,7 +1665,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="7"/>
@@ -1675,7 +1675,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -1684,7 +1684,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -1693,7 +1693,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1729,26 +1729,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="3" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
